--- a/PETER IRUNGU.xlsx
+++ b/PETER IRUNGU.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="11310" firstSheet="15" activeTab="18"/>
   </bookViews>
@@ -32,12 +27,12 @@
     <sheet name="NOVEMBER 21" sheetId="18" r:id="rId18"/>
     <sheet name="DECEMBER 21" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="107">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -353,11 +348,17 @@
   <si>
     <t xml:space="preserve"> THE MONTH OF DECEMBER  2021</t>
   </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>PAID ON 16/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -704,7 +705,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,7 +740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7484,8 +7485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,10 +8218,13 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="50" t="s">
@@ -8306,13 +8310,17 @@
         <f t="shared" ref="F5:F10" si="0">C5+E5</f>
         <v>10000</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12">
+        <v>10000</v>
+      </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H10" si="1">F5-G5</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="39">
+        <v>300</v>
+      </c>
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8342,7 +8350,9 @@
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="39">
+        <v>300</v>
+      </c>
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8392,10 +8402,12 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>10000</v>
+      </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>48</v>
@@ -8472,11 +8484,11 @@
       </c>
       <c r="G11" s="17">
         <f>SUM(G5:G10)</f>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H11" s="11">
         <f>SUM(H5:H10)</f>
-        <v>179000</v>
+        <v>159000</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="2"/>
@@ -8484,7 +8496,7 @@
       </c>
       <c r="J11" s="39">
         <f>SUM(J5:J10)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K11" s="42">
         <f>SUM(K5:K10)</f>
@@ -8598,7 +8610,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C19" s="11">
         <f>E11</f>
@@ -8608,11 +8620,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H19" s="11">
         <f>G11</f>
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="7"/>
@@ -8660,7 +8672,7 @@
       </c>
       <c r="C22" s="11">
         <f>J11</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -8670,7 +8682,7 @@
       </c>
       <c r="H22" s="11">
         <f>J11</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -8756,33 +8768,57 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7">
+        <v>10000</v>
+      </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7">
+        <v>10000</v>
+      </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
+      <c r="B28" s="46" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="47">
+        <v>15000</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="31"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
+      <c r="E29">
+        <v>16100</v>
+      </c>
       <c r="F29" s="7"/>
+      <c r="G29" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
+      <c r="J29">
+        <v>16100</v>
+      </c>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -8840,32 +8876,32 @@
       </c>
       <c r="C34" s="35">
         <f>C19+C20+C21+C22+C23+C24-E26</f>
-        <v>40500</v>
+        <v>41100</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35">
         <f>SUM(E27:E33)</f>
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="F34" s="35">
         <f>C34-E34</f>
-        <v>40500</v>
+        <v>0</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="35">
         <f>H19+H20+H22+H23+H24-J26</f>
-        <v>5500</v>
+        <v>26100</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="35">
         <f>SUM(J27:J33)</f>
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="K34" s="35">
         <f>H34-J34</f>
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
